--- a/Planetarium Test Plan.xlsx
+++ b/Planetarium Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishqp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloaded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54986311-7CDA-4AD7-ADB3-E5BE1A585758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4C4CA-910E-4829-A31A-50FF122AB23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{D553A7D2-898D-425D-9100-869F82215B38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D553A7D2-898D-425D-9100-869F82215B38}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="140">
   <si>
     <t>Users should be able to open a new User account with the Planetarium</t>
   </si>
@@ -82,21 +82,6 @@
     <t>ID: 1</t>
   </si>
   <si>
-    <t>Boundary Analysis testing for username/password length</t>
-  </si>
-  <si>
-    <t>Equivalence Partition testing for the uniqueness of usernames</t>
-  </si>
-  <si>
-    <t>Exploratory Testing to see if passwords are in plain text in any places we have access to in the provided software</t>
-  </si>
-  <si>
-    <t>Error Guess Testing to see if the passwords are in plain text in the interface for the application a regular user would have access to</t>
-  </si>
-  <si>
-    <t>Error Guess Testing to perform Acceptance Testing for the Use Case</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
@@ -346,9 +331,6 @@
     <t>The overall goal is to ensure the quality of the product is up to par with what shareholders expect and that the product meets all specifications.</t>
   </si>
   <si>
-    <t>Equivalence Partition Testing ensuring valid Moon-Planet pairs are made</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -358,38 +340,134 @@
     <t>high</t>
   </si>
   <si>
-    <t>Exploratory Testing to ensure deleted content does not remain in software</t>
-  </si>
-  <si>
-    <t>Exploratory Testing to ensure deleted content does not remain in in user accesssible locations</t>
-  </si>
-  <si>
-    <t>Exploratory Testing to see if moons/planets from other accounts leak into unassociated accounts in user accessible pages</t>
-  </si>
-  <si>
-    <t>Exploratory Testing to see if moons/planets from other accounts leak into unassociated accounts in software</t>
-  </si>
-  <si>
-    <t>Boundary Analysis testing for planet/moon names</t>
-  </si>
-  <si>
-    <t>Boundary Analysis for planet/moon images</t>
-  </si>
-  <si>
-    <t>Boundary Analysis for planet/moon IDs</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>TPDP jar file</t>
+  </si>
+  <si>
+    <t>Exploratary testing would be used to check if passwords are not stored in the database after account creation</t>
+  </si>
+  <si>
+    <t>Exploratary testing would be used to check if passwords are not in plaintext when being transported across the application</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if passwords are hidden when an user inputs one when creating an account</t>
+  </si>
+  <si>
+    <t>Boundary Analysis testing would be used to check if valid usernames are between 1 and 30 characters inclusively when creating an account</t>
+  </si>
+  <si>
+    <t>Boundary Analysis testing would be used to check if valid passwords are between 1 and 30 characters inclusively when creating an account</t>
+  </si>
+  <si>
+    <t>Equivalence Partitioning testing would be used to check if usernames have to be unique when creating an account</t>
+  </si>
+  <si>
+    <t>Acceptance testing would be used to check if the Create Account screen provides a good user experience (easy to use, intutitive, etc.)</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if passwords are hidden when an user inputs one when logging in to their account</t>
+  </si>
+  <si>
+    <t>Equivalence Partitioning testing would be used to check if valid users can successfully login to their home page</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if a previously logged in user can go to their home page when using "/plantarium" via session data</t>
+  </si>
+  <si>
+    <t>Acceptance testing would be used to check if the Login Account screen provides a good user experience (easy to use, intutitive, etc.)</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if an user can see their planets and moons when a user accesses their home page</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if an user can see their planets and moons after performing a create planet operation</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if an user can see their planets and moons after performing a delete planet operation</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if an user can see their planets and moons after peforming a create moon operation</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if an user can see their planets and moons after performing a delete moon operation</t>
+  </si>
+  <si>
+    <t>Exploratary testing would be used to check if an user's planets and moons are their own by looking at the database</t>
+  </si>
+  <si>
+    <t>Acceptance testing would be used to check if seeing the planets and moons is easy for users on the home page</t>
+  </si>
+  <si>
+    <t>Exploratary testing would be used to see if a user's planet is added to the database upon successful creation</t>
+  </si>
+  <si>
+    <t>Boundary Analysis testing would be used to check if valid planet names are between 1 and 30 characters inclusiviely when creating a planet</t>
+  </si>
+  <si>
+    <t>Equivalence Partitioning testing would be used to check if planet names have to be unique when creating a planet</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to see if a user can create a planet with or without an image for the planet</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if the added planet is viewable only on the user's home page upon successful creation</t>
+  </si>
+  <si>
+    <t>Acceptance testing would be used to see if creating a planet on the home page provides a good user experience (easy to use, intutitive, etc.)</t>
+  </si>
+  <si>
+    <t>Exploratary testing would be used to see if a user's planet and its moons are removed from the database upon successful deletion</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if a user can only input the name of the planets they own and not other's planet</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if the deleted planet and its moons are removed on the user's home page upon successful deletion</t>
+  </si>
+  <si>
+    <t>Acceptance testing would be used to see if deleting a planet on the home page provides a good user experience (easy to use, intutitive, etc.)</t>
+  </si>
+  <si>
+    <t>Exploratary testing would be used to see if a user's moon is added to the database upon successful creation</t>
+  </si>
+  <si>
+    <t>Boundary Analysis testing would be used to check if valid moon names are between 1 and 30 characters inclusively when creating a moon</t>
+  </si>
+  <si>
+    <t>Equivalence Partitioning testing would be used to check if moon names have to be unique when creating a moon</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if the planet provided for the moon is from the user and not from another account</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to see if a user can create a moon with or without an image for the moon</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if the added moon is viewable only on the user's home page upon successful creation</t>
+  </si>
+  <si>
+    <t>Acceptance testing would be used to check if creating a moon on the home page provides a good user experience (easy to use, intutitive, etc.)</t>
+  </si>
+  <si>
+    <t>Explorary testing would be used to see if a user's moon is removed from the database upon successful deletion</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if a user can only input the name of the moons they own and not other's moon</t>
+  </si>
+  <si>
+    <t>Error Guess testing would be used to check if the deleted moon is removed moon are removed on the user's home page upon successful deletion</t>
+  </si>
+  <si>
+    <t>Acceptance testing would be used to check if deleting a moon on the home page provides a good user experience (easy to use, intutitive, etc.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +530,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +608,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -736,12 +872,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -924,10 +1069,43 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1285,54 +1463,54 @@
   <sheetData>
     <row r="1" spans="1:8" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="25" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="25" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1344,24 +1522,24 @@
         <v>1</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -1380,19 +1558,19 @@
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1404,19 +1582,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1425,46 +1603,46 @@
         <v>5</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1473,20 +1651,20 @@
         <v>7</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="59" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1497,16 +1675,16 @@
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="52" t="s">
-        <v>80</v>
-      </c>
       <c r="H10" s="52" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="25" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1518,19 +1696,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1539,46 +1717,46 @@
         <v>5</v>
       </c>
       <c r="C12" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>71</v>
-      </c>
       <c r="F12" s="60" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="57" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1587,20 +1765,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="60" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1613,16 +1791,16 @@
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="57" t="s">
         <v>83</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1639,148 +1817,304 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D5F5EC-3BC4-4B13-BFC6-6AE082A36DC7}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
-    <col min="5" max="5" width="124.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="67">
+        <v>3</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C4" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="67">
+        <v>4</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="70"/>
+    </row>
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="67">
+        <v>5</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+    </row>
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="67">
+        <v>6</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="67">
+        <v>7</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="63"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1790,7 +2124,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,83 +2137,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82C953D-5C40-4B49-8BA7-26B2DA71070C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
@@ -1903,36 +2237,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
